--- a/analysis/xlsx/2020/2020_연령대별_판매량.xlsx
+++ b/analysis/xlsx/2020/2020_연령대별_판매량.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>511514000</v>
+        <v>561279000</v>
       </c>
       <c r="D3" t="n">
-        <v>511514000</v>
+        <v>561279000</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>544520000</v>
+        <v>504405000</v>
       </c>
       <c r="D4" t="n">
-        <v>544520000</v>
+        <v>504405000</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>347343000</v>
+        <v>337693000</v>
       </c>
       <c r="D5" t="n">
-        <v>347343000</v>
+        <v>337693000</v>
       </c>
     </row>
   </sheetData>
